--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.9924335088588863</v>
+        <v>1.089444305578694</v>
       </c>
       <c r="D2">
-        <v>0.3211290999254139</v>
+        <v>0.2877481520155922</v>
       </c>
       <c r="E2">
         <v>4.148451880314586</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.04718560982129</v>
+        <v>1.032393118162679</v>
       </c>
       <c r="D3">
-        <v>0.2951647035109128</v>
+        <v>0.3131044770999618</v>
       </c>
       <c r="E3">
         <v>4.148451880314586</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1467343037405739</v>
+        <v>0.1637249140059307</v>
       </c>
       <c r="D4">
-        <v>0.8833593570661955</v>
+        <v>0.8714424993452705</v>
       </c>
       <c r="E4">
         <v>4.148451880314586</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3150486996217484</v>
+        <v>-0.2255424715097639</v>
       </c>
       <c r="D5">
-        <v>0.7527638269448134</v>
+        <v>0.8236393153408452</v>
       </c>
       <c r="E5">
         <v>4.148451880314586</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.02316270850641368</v>
+        <v>0.02928714908817166</v>
       </c>
       <c r="D6">
-        <v>0.9815232372663092</v>
+        <v>0.9768996378920072</v>
       </c>
       <c r="E6">
         <v>3.264048399137829</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.9280630055055895</v>
+        <v>-0.9078757486611765</v>
       </c>
       <c r="D7">
-        <v>0.3535082811012416</v>
+        <v>0.3737819452636848</v>
       </c>
       <c r="E7">
         <v>3.264048399137829</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.371572325565493</v>
+        <v>-0.9392823303279144</v>
       </c>
       <c r="D8">
-        <v>0.1703798702497537</v>
+        <v>0.3577848825201915</v>
       </c>
       <c r="E8">
         <v>3.264048399137829</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.8105130706542448</v>
+        <v>-1.030485535004753</v>
       </c>
       <c r="D9">
-        <v>0.4177602210205</v>
+        <v>0.313978718674363</v>
       </c>
       <c r="E9">
         <v>3.248510729545016</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.388745069847652</v>
+        <v>-1.003494111983461</v>
       </c>
       <c r="D10">
-        <v>0.1650944703888557</v>
+        <v>0.3265329166393238</v>
       </c>
       <c r="E10">
         <v>3.248510729545016</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.4710745154066659</v>
+        <v>-0.3937967733850236</v>
       </c>
       <c r="D11">
-        <v>0.6376487205906489</v>
+        <v>0.6975219132791275</v>
       </c>
       <c r="E11">
         <v>3.9961084608386</v>
